--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial - Copy.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF9C0E-C786-4723-8F31-BFF16E60918E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A6C1F-16D0-4DD1-B4D3-83AB7C94E640}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -133,14 +134,14 @@
   </si>
   <si>
     <t xml:space="preserve">
-Now fill in the below grid of common accounting transactions on your own. As in the Interactive Exercise, the accounting transaction for each row is on the left of the grid.</t>
+Each row in the interactive grid below contains an accounting transaction in the first column. Complete each row by entering amounts under the two account columns that are relevant to the transaction. In the last row, calculate the ending balances similar to how you would in an Excel spreadsheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,31 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Open sans"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Open sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Open sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -473,98 +467,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1060,7 +1055,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -1074,295 +1069,298 @@
     <col min="16" max="16" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:15" ht="46.5" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+    <row r="2" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+    <row r="3" spans="1:15" ht="35.1" customHeight="1" thickBot="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="25" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="1:15" ht="40.5" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="19" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" ht="24" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="23"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
